--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectGroup_EditProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_AgencyObjectGroup_EditProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstar\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{104ABB49-9045-4E20-9104-D22D30C826B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85055B4E-42A2-45CD-A8A9-6AD123420325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{DEE80845-BCCA-4221-BC03-96171D76F591}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DEE80845-BCCA-4221-BC03-96171D76F591}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>button_save</t>
   </si>
   <si>
-    <t>link_agencyObjectProfile_wait</t>
-  </si>
-  <si>
     <t>Iteration</t>
   </si>
   <si>
@@ -116,6 +113,9 @@
   </si>
   <si>
     <t>Agency Edited</t>
+  </si>
+  <si>
+    <t>link_agencyObjectGroupProfile_wait</t>
   </si>
 </sst>
 </file>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47D072D-15CD-429A-85B1-3AA09CF83EE5}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -646,7 +646,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
@@ -716,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>8</v>
@@ -734,7 +734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA293AA-8158-4936-A66A-69CB68E32770}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -749,19 +749,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -769,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="5">
         <v>32</v>
